--- a/2022/SAMSUNG/SEPTEMBER/24.09.2022/SAMSUNG Bank Statement Sep-2022.xlsx
+++ b/2022/SAMSUNG/SEPTEMBER/24.09.2022/SAMSUNG Bank Statement Sep-2022.xlsx
@@ -79,6 +79,7 @@
             <charset val="1"/>
           </rPr>
           <t>16800 bill
+1910 Gift Buy
 6600 retail 33*200
 23400 Total Cost
 10200 company adjusted
@@ -3801,6 +3802,66 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3844,66 +3905,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6785,8 +6786,8 @@
   <dimension ref="A1:X320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6981,14 +6982,14 @@
       </c>
       <c r="L6" s="70"/>
       <c r="M6" s="70">
-        <v>4800</v>
+        <v>6710</v>
       </c>
       <c r="N6" s="105"/>
       <c r="O6" s="70"/>
       <c r="P6" s="72"/>
       <c r="Q6" s="73">
         <f t="shared" ref="Q6:Q36" si="0">SUM(B6:P6)</f>
-        <v>10240</v>
+        <v>12150</v>
       </c>
       <c r="R6" s="74"/>
       <c r="S6" s="75"/>
@@ -7972,7 +7973,7 @@
       </c>
       <c r="M37" s="93">
         <f t="shared" si="1"/>
-        <v>4800</v>
+        <v>6710</v>
       </c>
       <c r="N37" s="109">
         <f t="shared" si="1"/>
@@ -7988,7 +7989,7 @@
       </c>
       <c r="Q37" s="95">
         <f>SUM(Q6:Q36)</f>
-        <v>37790</v>
+        <v>39700</v>
       </c>
       <c r="S37" s="224"/>
       <c r="T37" s="224"/>
@@ -9997,6 +9998,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -10013,9 +10017,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -31361,13 +31362,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="26.25">
-      <c r="A1" s="449" t="s">
+      <c r="A1" s="469" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="450"/>
-      <c r="C1" s="450"/>
-      <c r="D1" s="450"/>
-      <c r="E1" s="451"/>
+      <c r="B1" s="470"/>
+      <c r="C1" s="470"/>
+      <c r="D1" s="470"/>
+      <c r="E1" s="471"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -31376,13 +31377,13 @@
       <c r="K1" s="464"/>
     </row>
     <row r="2" spans="1:18" ht="20.25">
-      <c r="A2" s="458" t="s">
+      <c r="A2" s="478" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="459"/>
-      <c r="C2" s="459"/>
-      <c r="D2" s="459"/>
-      <c r="E2" s="460"/>
+      <c r="B2" s="479"/>
+      <c r="C2" s="479"/>
+      <c r="D2" s="479"/>
+      <c r="E2" s="480"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -31403,13 +31404,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="23.25">
-      <c r="A3" s="452" t="s">
+      <c r="A3" s="472" t="s">
         <v>312</v>
       </c>
-      <c r="B3" s="453"/>
-      <c r="C3" s="453"/>
-      <c r="D3" s="453"/>
-      <c r="E3" s="454"/>
+      <c r="B3" s="473"/>
+      <c r="C3" s="473"/>
+      <c r="D3" s="473"/>
+      <c r="E3" s="474"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -31436,13 +31437,13 @@
       <c r="R3" s="7"/>
     </row>
     <row r="4" spans="1:18" ht="23.25">
-      <c r="A4" s="461" t="s">
+      <c r="A4" s="481" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="462"/>
-      <c r="C4" s="462"/>
-      <c r="D4" s="462"/>
-      <c r="E4" s="463"/>
+      <c r="B4" s="482"/>
+      <c r="C4" s="482"/>
+      <c r="D4" s="482"/>
+      <c r="E4" s="483"/>
       <c r="F4" s="5"/>
       <c r="G4" s="40"/>
       <c r="H4" s="40"/>
@@ -31559,7 +31560,7 @@
         <v>64</v>
       </c>
       <c r="E7" s="230">
-        <v>121723.46800000034</v>
+        <v>119813.46800000034</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="266"/>
@@ -31632,7 +31633,7 @@
         <v>81</v>
       </c>
       <c r="B9" s="215">
-        <v>37790</v>
+        <v>39700</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="330" t="s">
@@ -31715,7 +31716,7 @@
       </c>
       <c r="B11" s="363">
         <f>B6-B9-B10</f>
-        <v>66203.467999999993</v>
+        <v>64293.467999999993</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="37" t="s">
@@ -31898,7 +31899,7 @@
       </c>
       <c r="B17" s="216">
         <f>B5+B11+B14</f>
-        <v>13066203.468</v>
+        <v>13064293.468</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="38" t="s">
@@ -31906,7 +31907,7 @@
       </c>
       <c r="E17" s="232">
         <f>SUM(E5:E16)</f>
-        <v>13066203.468</v>
+        <v>13064293.468</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="104">
@@ -31914,11 +31915,11 @@
         <v>0</v>
       </c>
       <c r="H17" s="265"/>
-      <c r="I17" s="465" t="s">
+      <c r="I17" s="455" t="s">
         <v>133</v>
       </c>
-      <c r="J17" s="465"/>
-      <c r="K17" s="465"/>
+      <c r="J17" s="455"/>
+      <c r="K17" s="455"/>
       <c r="L17" s="293">
         <f>SUM(L3:L16)</f>
         <v>311650</v>
@@ -31941,11 +31942,11 @@
       <c r="F18" s="5"/>
       <c r="G18" s="9"/>
       <c r="H18" s="265"/>
-      <c r="I18" s="466" t="s">
+      <c r="I18" s="465" t="s">
         <v>95</v>
       </c>
-      <c r="J18" s="466"/>
-      <c r="K18" s="466"/>
+      <c r="J18" s="465"/>
+      <c r="K18" s="465"/>
       <c r="L18" s="31">
         <v>54000</v>
       </c>
@@ -31957,21 +31958,21 @@
       <c r="R18" s="7"/>
     </row>
     <row r="19" spans="1:18" ht="23.25" thickBot="1">
-      <c r="A19" s="455" t="s">
+      <c r="A19" s="475" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="456"/>
-      <c r="C19" s="456"/>
-      <c r="D19" s="456"/>
-      <c r="E19" s="457"/>
+      <c r="B19" s="476"/>
+      <c r="C19" s="476"/>
+      <c r="D19" s="476"/>
+      <c r="E19" s="477"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="473" t="s">
+      <c r="I19" s="460" t="s">
         <v>154</v>
       </c>
-      <c r="J19" s="473"/>
-      <c r="K19" s="473"/>
+      <c r="J19" s="460"/>
+      <c r="K19" s="460"/>
       <c r="L19" s="31">
         <v>20000</v>
       </c>
@@ -31999,11 +32000,11 @@
       <c r="F20" s="5"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
-      <c r="I20" s="467" t="s">
+      <c r="I20" s="457" t="s">
         <v>136</v>
       </c>
-      <c r="J20" s="467"/>
-      <c r="K20" s="467"/>
+      <c r="J20" s="457"/>
+      <c r="K20" s="457"/>
       <c r="L20" s="31">
         <v>19500</v>
       </c>
@@ -32030,11 +32031,11 @@
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
-      <c r="I21" s="468" t="s">
+      <c r="I21" s="466" t="s">
         <v>153</v>
       </c>
-      <c r="J21" s="469"/>
-      <c r="K21" s="470"/>
+      <c r="J21" s="467"/>
+      <c r="K21" s="468"/>
       <c r="L21" s="31">
         <v>30000</v>
       </c>
@@ -32059,11 +32060,11 @@
       <c r="E22" s="234">
         <v>351819</v>
       </c>
-      <c r="I22" s="473" t="s">
+      <c r="I22" s="460" t="s">
         <v>156</v>
       </c>
-      <c r="J22" s="473"/>
-      <c r="K22" s="473"/>
+      <c r="J22" s="460"/>
+      <c r="K22" s="460"/>
       <c r="L22" s="318">
         <v>20000</v>
       </c>
@@ -32088,11 +32089,11 @@
       <c r="E23" s="234">
         <v>517089</v>
       </c>
-      <c r="I23" s="474" t="s">
+      <c r="I23" s="452" t="s">
         <v>173</v>
       </c>
-      <c r="J23" s="475"/>
-      <c r="K23" s="476"/>
+      <c r="J23" s="453"/>
+      <c r="K23" s="454"/>
       <c r="L23" s="318">
         <v>40000</v>
       </c>
@@ -32117,11 +32118,11 @@
       <c r="E24" s="286">
         <v>385870</v>
       </c>
-      <c r="I24" s="473" t="s">
+      <c r="I24" s="460" t="s">
         <v>188</v>
       </c>
-      <c r="J24" s="473"/>
-      <c r="K24" s="473"/>
+      <c r="J24" s="460"/>
+      <c r="K24" s="460"/>
       <c r="L24" s="305">
         <v>30000</v>
       </c>
@@ -32146,11 +32147,11 @@
       <c r="E25" s="234">
         <v>152950</v>
       </c>
-      <c r="I25" s="473" t="s">
+      <c r="I25" s="460" t="s">
         <v>215</v>
       </c>
-      <c r="J25" s="473"/>
-      <c r="K25" s="473"/>
+      <c r="J25" s="460"/>
+      <c r="K25" s="460"/>
       <c r="L25" s="305">
         <v>20000</v>
       </c>
@@ -32175,11 +32176,11 @@
       <c r="E26" s="329">
         <v>90252</v>
       </c>
-      <c r="I26" s="465" t="s">
+      <c r="I26" s="455" t="s">
         <v>157</v>
       </c>
-      <c r="J26" s="465"/>
-      <c r="K26" s="465"/>
+      <c r="J26" s="455"/>
+      <c r="K26" s="455"/>
       <c r="L26" s="293">
         <f>L17-L18-L19-L20-L21-L22-L23-L24-L25</f>
         <v>78150</v>
@@ -32231,13 +32232,13 @@
       <c r="E28" s="234">
         <v>70000</v>
       </c>
-      <c r="I28" s="477" t="s">
+      <c r="I28" s="461" t="s">
         <v>190</v>
       </c>
-      <c r="J28" s="478"/>
-      <c r="K28" s="478"/>
-      <c r="L28" s="478"/>
-      <c r="M28" s="479"/>
+      <c r="J28" s="462"/>
+      <c r="K28" s="462"/>
+      <c r="L28" s="462"/>
+      <c r="M28" s="463"/>
     </row>
     <row r="29" spans="1:18" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="235" t="s">
@@ -32253,11 +32254,11 @@
       <c r="E29" s="234">
         <v>110000</v>
       </c>
-      <c r="I29" s="471" t="s">
+      <c r="I29" s="458" t="s">
         <v>124</v>
       </c>
-      <c r="J29" s="471"/>
-      <c r="K29" s="472"/>
+      <c r="J29" s="458"/>
+      <c r="K29" s="459"/>
       <c r="L29" s="333">
         <v>213170</v>
       </c>
@@ -32307,11 +32308,11 @@
       <c r="E31" s="329">
         <v>104712</v>
       </c>
-      <c r="I31" s="483" t="s">
+      <c r="I31" s="456" t="s">
         <v>148</v>
       </c>
-      <c r="J31" s="467"/>
-      <c r="K31" s="467"/>
+      <c r="J31" s="457"/>
+      <c r="K31" s="457"/>
       <c r="L31" s="332">
         <v>79500</v>
       </c>
@@ -32338,11 +32339,11 @@
       <c r="E32" s="234">
         <v>385590</v>
       </c>
-      <c r="I32" s="483" t="s">
+      <c r="I32" s="456" t="s">
         <v>148</v>
       </c>
-      <c r="J32" s="467"/>
-      <c r="K32" s="467"/>
+      <c r="J32" s="457"/>
+      <c r="K32" s="457"/>
       <c r="L32" s="332">
         <v>47500</v>
       </c>
@@ -32369,11 +32370,11 @@
       <c r="E33" s="329">
         <v>64717</v>
       </c>
-      <c r="I33" s="480" t="s">
+      <c r="I33" s="449" t="s">
         <v>148</v>
       </c>
-      <c r="J33" s="481"/>
-      <c r="K33" s="482"/>
+      <c r="J33" s="450"/>
+      <c r="K33" s="451"/>
       <c r="L33" s="332">
         <v>50000</v>
       </c>
@@ -32400,9 +32401,9 @@
       <c r="E34" s="329">
         <v>13500</v>
       </c>
-      <c r="I34" s="474"/>
-      <c r="J34" s="475"/>
-      <c r="K34" s="476"/>
+      <c r="I34" s="452"/>
+      <c r="J34" s="453"/>
+      <c r="K34" s="454"/>
       <c r="L34" s="332">
         <v>10000</v>
       </c>
@@ -32427,11 +32428,11 @@
       <c r="E35" s="374">
         <v>26100</v>
       </c>
-      <c r="I35" s="465" t="s">
+      <c r="I35" s="455" t="s">
         <v>96</v>
       </c>
-      <c r="J35" s="465"/>
-      <c r="K35" s="465"/>
+      <c r="J35" s="455"/>
+      <c r="K35" s="455"/>
       <c r="L35" s="331">
         <f>L29-L31-L32-L33-L34</f>
         <v>26170</v>
@@ -35131,11 +35132,16 @@
     <sortCondition ref="A20"/>
   </sortState>
   <mergeCells count="23">
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="I21:K21"/>
     <mergeCell ref="I26:K26"/>
     <mergeCell ref="I29:K29"/>
     <mergeCell ref="I19:K19"/>
@@ -35144,16 +35150,11 @@
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="I28:M28"/>
     <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I31:K31"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.94488188976377963" bottom="0" header="0" footer="0"/>
